--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-de-lota-o-InternosPrimeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E59DA7-7C9E-466D-A09B-40ABFBE8997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B05ABD-FA65-4BD5-ACE5-ED2A7641B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="19830" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="0" windowWidth="19830" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>CH_HORARIA</t>
+  </si>
+  <si>
+    <t>GRANDE</t>
+  </si>
+  <si>
+    <t>PEQUENA</t>
   </si>
 </sst>
 </file>
@@ -177,13 +183,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +474,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D2" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,28 +521,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>15055582</v>
-      </c>
-      <c r="F2">
-        <v>1920914550000</v>
+        <v>15057046</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1920914340000</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -543,28 +550,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>15550079</v>
+        <v>15057291</v>
       </c>
       <c r="F3">
-        <v>1920928040000</v>
+        <v>1920913530000</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3" s="3">
         <v>2003</v>
       </c>
-      <c r="I3" s="3">
-        <v>40</v>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -589,8 +596,8 @@
       <c r="H4" s="4">
         <v>2002</v>
       </c>
-      <c r="I4" s="4">
-        <v>40</v>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -601,28 +608,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>15057291</v>
+        <v>15550079</v>
       </c>
       <c r="F5">
-        <v>1920913530000</v>
+        <v>1920928040000</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <v>2003</v>
       </c>
-      <c r="I5" s="4">
-        <v>20</v>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -630,34 +637,37 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>15057046</v>
+        <v>15055582</v>
       </c>
       <c r="F6">
-        <v>1920914340000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2002</v>
-      </c>
-      <c r="I6" s="4">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J6">
+    <sortCondition descending="1" ref="D2:D6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-de-lota-o-InternosPrimeiro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B05ABD-FA65-4BD5-ACE5-ED2A7641B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FC6FC-F5A0-4401-B72D-9979E0C4900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="0" windowWidth="19830" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,14 +183,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,17 +473,18 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:J6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="9" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -516,65 +516,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>15057046</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1920914340000</v>
+        <v>15055582</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1920914550000</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2002</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>15550079</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1920928040000</v>
+      </c>
+      <c r="G3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>15057291</v>
-      </c>
-      <c r="F3">
-        <v>1920913530000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
       </c>
       <c r="H3" s="3">
         <v>2003</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="E4">
         <v>15056651</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>1920932310000</v>
       </c>
       <c r="G4" t="s">
@@ -603,70 +603,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>15550079</v>
-      </c>
-      <c r="F5">
-        <v>1920928040000</v>
+        <v>15057291</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1920913530000</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3">
         <v>2003</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>15057046</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1920914340000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>15055582</v>
-      </c>
-      <c r="F6">
-        <v>1920914550000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J6">
-    <sortCondition descending="1" ref="D2:D6"/>
+    <sortCondition ref="D2:D6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,9 +680,9 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FC6FC-F5A0-4401-B72D-9979E0C4900B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7FF7B-1C5D-4823-B771-A126E40065CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>01A URE - BRAGANCA</t>
-  </si>
-  <si>
-    <t>AUGUSTO CORREA</t>
   </si>
   <si>
     <t>EEEM ANDRE ALVES</t>
@@ -470,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,44 +481,44 @@
     <col min="8" max="9" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -533,24 +530,24 @@
         <v>1920914550000</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -562,24 +559,24 @@
         <v>1920928040000</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
         <v>2003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -591,24 +588,25 @@
         <v>1920932310000</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
         <v>2002</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -620,24 +618,24 @@
         <v>1920913530000</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>2003</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -649,19 +647,48 @@
         <v>1920914340000</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4">
         <v>2002</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>15057046</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1920914340000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" s="5"/>
     </row>
   </sheetData>
@@ -687,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <v>5</v>
@@ -699,7 +726,7 @@
         <v>1920913510000</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3">
         <v>2002</v>
@@ -713,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -725,7 +752,7 @@
         <v>1920913430000</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
         <v>2002</v>
@@ -739,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -751,7 +778,7 @@
         <v>1920931430000</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>2002</v>
@@ -765,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -777,7 +804,7 @@
         <v>1920913570000</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <v>2003</v>
@@ -791,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -803,7 +830,7 @@
         <v>1920913390000</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <v>2002</v>
@@ -817,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -829,7 +856,7 @@
         <v>1920914340000</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3">
         <v>2002</v>

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7FF7B-1C5D-4823-B771-A126E40065CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7F57FF-07C5-432E-8CCF-62D8D1BA10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -55,21 +54,6 @@
   </si>
   <si>
     <t>EEEF PATALINO</t>
-  </si>
-  <si>
-    <t>EEEF PROF YOLANDA CHAVES</t>
-  </si>
-  <si>
-    <t>EEEF PROFA ARGENTINA PEREIRA</t>
-  </si>
-  <si>
-    <t>EEEF SANTA TEREZINHA</t>
-  </si>
-  <si>
-    <t>EEEFM ALBINO CARDOSO</t>
-  </si>
-  <si>
-    <t>EEEFM AUGUSTO CORREA</t>
   </si>
   <si>
     <t>EEEFM DO ROCHA</t>
@@ -470,7 +454,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,34 +467,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -536,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -565,10 +549,10 @@
         <v>2003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -594,7 +578,7 @@
         <v>2002</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -624,7 +608,7 @@
         <v>2003</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J5" s="5">
         <v>1</v>
@@ -647,13 +631,13 @@
         <v>1920914340000</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
         <v>2002</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -676,13 +660,13 @@
         <v>1920914340000</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -697,175 +681,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A924938D-0DB1-4320-937A-A663D1A2A43C}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>15057194</v>
-      </c>
-      <c r="F1">
-        <v>1920913510000</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>15056929</v>
-      </c>
-      <c r="F2">
-        <v>1920913430000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>15540332</v>
-      </c>
-      <c r="F3">
-        <v>1920931430000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>15058832</v>
-      </c>
-      <c r="F4">
-        <v>1920913570000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3">
-        <v>2003</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>15056767</v>
-      </c>
-      <c r="F5">
-        <v>1920913390000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>15057046</v>
-      </c>
-      <c r="F6">
-        <v>1920914340000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3">
-        <v>2002</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Documents\Py\Algoritmo-lotacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7F57FF-07C5-432E-8CCF-62D8D1BA10E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE2F7A4-6BDC-4602-A3BE-06279D8A89FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
   <si>
     <t>01A URE - BRAGANCA</t>
   </si>
@@ -89,10 +92,25 @@
     <t>CH_HORARIA</t>
   </si>
   <si>
-    <t>GRANDE</t>
-  </si>
-  <si>
-    <t>PEQUENA</t>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>INTEGRAL</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -451,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +480,10 @@
     <col min="1" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="9" width="23" style="3" customWidth="1"/>
+    <col min="8" max="11" width="23" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -491,13 +509,19 @@
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,42 +544,54 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3">
+        <v>40</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
-        <v>2</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>15550079</v>
+        <v>15055582</v>
       </c>
       <c r="F3" s="3">
-        <v>1920928040000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2003</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -563,29 +599,34 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15056651</v>
+        <v>15055582</v>
       </c>
       <c r="F4" s="3">
-        <v>1920932310000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>2002</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -593,91 +634,670 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>15057291</v>
+        <v>15055582</v>
       </c>
       <c r="F5" s="3">
-        <v>1920913530000</v>
+        <v>1920914550000</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>2003</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>10</v>
+      <c r="D6" s="5">
+        <v>2</v>
       </c>
       <c r="E6">
+        <v>15550079</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1920928040000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>15550079</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1920928040000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>15550079</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1920928040000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>15056651</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1920932310000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>15056651</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1920932310000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>15056651</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1920932310000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="4">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>15057291</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>15057291</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4">
+        <v>40</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>15057291</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="4">
+        <v>40</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>15057291</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>15057291</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="4">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>15057291</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2002</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="4">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>15057291</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="4">
+        <v>40</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>15057291</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>15057291</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1920913530000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="4">
+        <v>40</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>15057046</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F21" s="3">
         <v>1920914340000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="4">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>15057046</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1920914340000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4">
         <v>2002</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
+      <c r="I22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="4">
+        <v>40</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>15057046</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F23" s="3">
         <v>1920914340000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="5"/>
+      <c r="H23" s="3">
+        <v>2003</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="4">
+        <v>40</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J6">
-    <sortCondition ref="D2:D6"/>
+  <autoFilter ref="A1:L23" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
+    <sortCondition ref="D2:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-lotacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947F124-8348-40F0-A453-A0C8B2C5BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="7110" windowWidth="22125" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,14 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,159 +112,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,194 +126,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -487,251 +150,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -741,61 +162,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1053,27 +430,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="12.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
+    <col min="1" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="10" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.2" customHeight="1" spans="1:11">
+    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1236,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1297,10 +674,10 @@
         <v>40</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1431,7 +808,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1524,10 +901,10 @@
         <v>40</v>
       </c>
       <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1599,13 +976,10 @@
     <row r="22" customFormat="1"/>
     <row r="23" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:K16">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:K21">
+  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
     <sortCondition ref="D2:D21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\Documents\Code\Algoritmo-lotacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947F124-8348-40F0-A453-A0C8B2C5BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7110" windowWidth="22125" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>URE</t>
   </si>
@@ -34,6 +28,9 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
+    <t>AGRUPAMENTO</t>
+  </si>
+  <si>
     <t>COD_ESCOLA</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>BRAGANCA</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>EEEM ANDRE ALVES</t>
   </si>
   <si>
@@ -83,13 +83,25 @@
   </si>
   <si>
     <t>SIM</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ESCOLA X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +124,166 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +296,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,29 +506,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,27 +1076,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="10" width="23" style="1" customWidth="1"/>
+    <col min="1" max="6" width="12.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="14.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="11" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.149999999999999" customHeight="1">
+    <row r="1" ht="19.15" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,503 +1118,586 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>15055582</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1920914550000</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1">
         <v>40</v>
       </c>
-      <c r="K2">
-        <v>2</v>
+      <c r="L2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>15055582</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1920914550000</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9">
         <v>2002</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
         <v>40</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>15055582</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1920914550000</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
         <v>2003</v>
       </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15550079</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>1920928040000</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1">
         <v>40</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15550079</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>1920928040000</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9">
         <v>2002</v>
       </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1">
         <v>40</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15550079</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1920928040000</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1">
         <v>2003</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
         <v>40</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>15056651</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1920932310000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="9">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>15056651</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>1920932310000</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2002</v>
+      </c>
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K9" s="9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>15056651</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1920932310000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>15057291</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1920913530000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9">
         <v>40</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>15056651</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1920932310000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2002</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="4">
-        <v>20</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>15056651</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1920932310000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2003</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="4">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>15057291</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1920913530000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="4">
-        <v>40</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15057291</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1920913530000</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="9">
         <v>2002</v>
       </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="9">
         <v>20</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15057291</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1920913530000</v>
       </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1">
         <v>2003</v>
       </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="9">
         <v>40</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>15057046</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>1920914340000</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="9">
         <v>40</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>15057046</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>1920914340000</v>
       </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9">
         <v>2002</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="J15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="9">
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>15057046</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1920914340000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2003</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="9">
+        <v>40</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:12">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>15057046</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1920914340000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2003</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>15055582</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1920910000000</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17">
         <v>40</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
     <row r="19" customFormat="1"/>
     <row r="20" customFormat="1"/>
@@ -976,10 +1705,13 @@
     <row r="22" customFormat="1"/>
     <row r="23" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:K16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K21">
-    <sortCondition ref="D2:D21"/>
+  <autoFilter ref="A1:L16">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:L21">
+    <sortCondition ref="E2:E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8580"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$17</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -101,7 +101,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +118,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -607,160 +600,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1084,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1121,13 +1112,13 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1157,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -1191,7 +1182,7 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>2002</v>
       </c>
       <c r="J3" t="s">
@@ -1201,7 +1192,7 @@
         <v>40</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1236,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1262,7 +1253,7 @@
         <v>17</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1296,7 +1287,7 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>2002</v>
       </c>
       <c r="J6" t="s">
@@ -1367,12 +1358,12 @@
         <v>18</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>40</v>
       </c>
       <c r="L8">
@@ -1401,13 +1392,13 @@
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>2002</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="7">
         <v>20</v>
       </c>
       <c r="L9">
@@ -1443,7 +1434,7 @@
       <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>20</v>
       </c>
       <c r="L10">
@@ -1474,12 +1465,12 @@
         <v>19</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="7">
         <v>40</v>
       </c>
       <c r="L11" s="4">
@@ -1509,13 +1500,13 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>2002</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="7">
         <v>20</v>
       </c>
       <c r="L12" s="4">
@@ -1550,7 +1541,7 @@
       <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>40</v>
       </c>
       <c r="L13" s="4">
@@ -1580,12 +1571,12 @@
         <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>40</v>
       </c>
       <c r="L14">
@@ -1614,13 +1605,13 @@
       <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>2002</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="7">
         <v>40</v>
       </c>
       <c r="L15" s="4">
@@ -1655,7 +1646,7 @@
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>40</v>
       </c>
       <c r="L16" s="4">
@@ -1663,30 +1654,30 @@
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:12">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>15055582</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>1920910000000</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1705,7 +1696,7 @@
     <row r="22" customFormat="1"/>
     <row r="23" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:L16">
+  <autoFilter ref="A1:L17">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:L21">

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1227,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12">

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1075,8 +1075,8 @@
   <sheetPr/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1227,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">

--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Desktop\LOTACAO\Algoritmo-lotacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF49515-3DAE-4058-9436-4EE3C387302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9024"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
   <si>
     <t>URE</t>
   </si>
@@ -89,19 +95,22 @@
   </si>
   <si>
     <t>ESCOLA X</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,159 +133,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,194 +147,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -500,316 +172,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1067,27 +463,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="12.287037037037" customWidth="1"/>
-    <col min="7" max="7" width="14.4259259259259" customWidth="1"/>
+    <col min="1" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="11" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.15" customHeight="1" spans="1:12">
+    <row r="1" spans="1:13" ht="19.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,27 +508,30 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="E2">
@@ -1159,15 +558,18 @@
       <c r="L2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3">
@@ -1182,7 +584,7 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>2002</v>
       </c>
       <c r="J3" t="s">
@@ -1194,15 +596,18 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4">
@@ -1229,18 +634,21 @@
       <c r="L4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5">
@@ -1264,18 +672,21 @@
       <c r="L5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6">
@@ -1287,7 +698,7 @@
       <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>2002</v>
       </c>
       <c r="J6" t="s">
@@ -1299,18 +710,21 @@
       <c r="L6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7">
@@ -1334,15 +748,18 @@
       <c r="L7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8">
@@ -1363,11 +780,14 @@
       <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>40</v>
       </c>
       <c r="L8">
         <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1377,7 +797,7 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
@@ -1392,19 +812,21 @@
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>2002</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>20</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -1413,7 +835,7 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10">
@@ -1434,13 +856,15 @@
       <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>20</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -1449,7 +873,7 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
@@ -1470,22 +894,24 @@
       <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>40</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
@@ -1500,27 +926,30 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>2002</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>20</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13">
@@ -1541,21 +970,24 @@
       <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>40</v>
       </c>
-      <c r="L13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14">
@@ -1576,21 +1008,24 @@
       <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>40</v>
       </c>
       <c r="L14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15">
@@ -1605,27 +1040,30 @@
       <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>2002</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>40</v>
       </c>
-      <c r="L15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16">
@@ -1646,34 +1084,36 @@
       <c r="J16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>40</v>
       </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>15055582</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="1">
         <v>1920910000000</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17">
@@ -1688,21 +1128,45 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L17">
-    <extLst/>
-  </autoFilter>
-  <sortState ref="A2:L21">
+  <autoFilter ref="A1:L17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
     <sortCondition ref="E2:E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/escolas.xlsx
+++ b/escolas.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEDUC\Desktop\LOTACAO\Algoritmo-lotacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF49515-3DAE-4058-9436-4EE3C387302F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>URE</t>
   </si>
@@ -61,6 +55,9 @@
     <t>VAGAS</t>
   </si>
   <si>
+    <t>TURNO</t>
+  </si>
+  <si>
     <t>01A URE - BRAGANCA</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
     <t>NAO</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>EEEM BENEDITO CARDOSO DE ATHAYDE</t>
   </si>
   <si>
@@ -95,22 +98,19 @@
   </si>
   <si>
     <t>ESCOLA X</t>
-  </si>
-  <si>
-    <t>TURNO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +133,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +298,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,9 +519,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -192,20 +771,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -463,27 +1086,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="1" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="11" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.2" customHeight="1">
+    <row r="1" ht="19.2" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,19 +1143,19 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>24</v>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -544,13 +1167,13 @@
         <v>1920914550000</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1">
         <v>2006</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1">
         <v>40</v>
@@ -559,18 +1182,18 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -582,13 +1205,13 @@
         <v>1920914550000</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6">
         <v>2002</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>40</v>
@@ -597,18 +1220,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -620,13 +1243,13 @@
         <v>1920914550000</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1">
         <v>2003</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
         <v>20</v>
@@ -635,18 +1258,18 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -658,13 +1281,13 @@
         <v>1920928040000</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1">
         <v>2006</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1">
         <v>40</v>
@@ -673,18 +1296,18 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
@@ -696,13 +1319,13 @@
         <v>1920928040000</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2002</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2002</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
       </c>
       <c r="K6" s="1">
         <v>40</v>
@@ -711,18 +1334,18 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -734,13 +1357,13 @@
         <v>1920928040000</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1">
         <v>2003</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1">
         <v>40</v>
@@ -749,18 +1372,18 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -772,33 +1395,33 @@
         <v>1920932310000</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
         <v>2006</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="5">
+        <v>17</v>
+      </c>
+      <c r="K8" s="6">
         <v>40</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -810,33 +1433,33 @@
         <v>1920932310000</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="5">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6">
         <v>2002</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="5">
+        <v>17</v>
+      </c>
+      <c r="K9" s="6">
         <v>20</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -848,33 +1471,33 @@
         <v>1920932310000</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>2003</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5">
+        <v>17</v>
+      </c>
+      <c r="K10" s="6">
         <v>20</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -886,33 +1509,33 @@
         <v>1920913530000</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1">
         <v>2006</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="5">
+        <v>17</v>
+      </c>
+      <c r="K11" s="6">
         <v>40</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -924,33 +1547,33 @@
         <v>1920913530000</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2002</v>
+        <v>22</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2006</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="5">
+        <v>17</v>
+      </c>
+      <c r="K12" s="6">
         <v>20</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -962,71 +1585,71 @@
         <v>1920913530000</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2003</v>
+        <v>22</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2002</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="5">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="K13" s="6">
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>15057046</v>
+        <v>15057291</v>
       </c>
       <c r="G14" s="1">
-        <v>1920914340000</v>
+        <v>1920913530000</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="5">
+        <v>2003</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="6">
         <v>40</v>
       </c>
-      <c r="L14">
-        <v>2</v>
+      <c r="L14" s="3">
+        <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -1038,33 +1661,33 @@
         <v>1920914340000</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2002</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="5">
+        <v>23</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="6">
         <v>40</v>
       </c>
-      <c r="L15" s="3">
-        <v>1</v>
+      <c r="L15">
+        <v>2</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1076,97 +1699,138 @@
         <v>1920914340000</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2003</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="5">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2002</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6">
         <v>40</v>
       </c>
       <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>15055582</v>
+        <v>15057046</v>
       </c>
       <c r="G17" s="1">
-        <v>1920910000000</v>
+        <v>1920914340000</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
+        <v>2003</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="6">
+        <v>40</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>15055582</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1920910000000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18">
         <v>2006</v>
       </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
         <v>40</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>1</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11">
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="9:11">
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="9:11">
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="9:11">
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="9:11">
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
     </row>
+    <row r="24" spans="9:11">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L21">
+  <autoFilter ref="A1:L18">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:L21">
     <sortCondition ref="E2:E21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>